--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8BC3F9-43FF-4F73-A367-7D1CD3215379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375384C-1EE1-43E5-B64A-A00CB190CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16140" yWindow="45" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16110" yWindow="-15" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taxa" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
   <si>
     <t>Herpetogaster collinsi</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>Cincta</t>
+  </si>
+  <si>
+    <t>Time source</t>
+  </si>
+  <si>
+    <t>upper Wheeler Fm</t>
+  </si>
+  <si>
+    <t>Lefebvre2017gm</t>
+  </si>
+  <si>
+    <t>middle Marjum Fm</t>
   </si>
 </sst>
 </file>
@@ -711,21 +723,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -744,8 +756,11 @@
       <c r="F1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -760,7 +775,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -778,10 +793,10 @@
       </c>
       <c r="F3">
         <f>VLOOKUP(E3, lookup!$A$1:$B$14, 2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -799,10 +814,10 @@
       </c>
       <c r="F4">
         <f>VLOOKUP(E4, lookup!$A$1:$B$14, 2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -823,7 +838,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -838,7 +853,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -856,7 +871,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -874,7 +889,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -892,7 +907,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -910,10 +925,10 @@
       </c>
       <c r="F10">
         <f>VLOOKUP(E10, lookup!$A$1:$B$14, 2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -931,10 +946,10 @@
       </c>
       <c r="F11">
         <f>VLOOKUP(E11, lookup!$A$1:$B$14, 2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -952,10 +967,10 @@
       </c>
       <c r="F12">
         <f>VLOOKUP(E12, lookup!$A$1:$B$14, 2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -973,10 +988,10 @@
       </c>
       <c r="F13">
         <f>VLOOKUP(E13, lookup!$A$1:$B$14, 2)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1021,7 +1036,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1087,7 +1102,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1126,10 +1141,10 @@
       </c>
       <c r="F22">
         <f>VLOOKUP(E22, lookup!$A$1:$B$14, 2)</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1144,7 +1159,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1231,7 +1246,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1242,14 +1257,16 @@
         <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(E29, lookup!$A$1:$B$14, 2)</f>
         <v>503</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1260,14 +1277,16 @@
         <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="F30">
-        <f>VLOOKUP(E30, lookup!$A$1:$B$14, 2)</f>
-        <v>503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -1282,7 +1301,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1609,7 +1628,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375384C-1EE1-43E5-B64A-A00CB190CD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CC2D1-FB7A-4876-8BEE-511873BA2255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16110" yWindow="-15" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
   <si>
     <t>Herpetogaster collinsi</t>
   </si>
@@ -406,6 +406,84 @@
   </si>
   <si>
     <t>middle Marjum Fm</t>
+  </si>
+  <si>
+    <t>Smith2013nc</t>
+  </si>
+  <si>
+    <t>Kinzers Fm = mid-Dyeran</t>
+  </si>
+  <si>
+    <t>Poleta Fm = upper Montezuman</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>loTime</t>
+  </si>
+  <si>
+    <t>Latham Shale</t>
+  </si>
+  <si>
+    <t>Drumian</t>
+  </si>
+  <si>
+    <t>Jbel Wawrmast Fm, latest Agdzian</t>
+  </si>
+  <si>
+    <t>Murero Fm (lower Languedocian)</t>
+  </si>
+  <si>
+    <t>Burgess Shale</t>
+  </si>
+  <si>
+    <t>Topazan</t>
+  </si>
+  <si>
+    <t>Sprinkle2006cjes</t>
+  </si>
+  <si>
+    <t>Jbel Wawrmast Fm, Brèche à Micmacca Mbr</t>
+  </si>
+  <si>
+    <t>Caesaraugustan: Genestosa Member (Oville Formation) and Murero Formation (part)</t>
+  </si>
+  <si>
+    <t>Jbel Wawrmast Fm, Tarhoucht Mbr 1</t>
+  </si>
+  <si>
+    <t>Lower Oryctocephalus indicus zone</t>
+  </si>
+  <si>
+    <t>mid Oryctocephalus indicus zone</t>
+  </si>
+  <si>
+    <t>Zhao2010jp</t>
+  </si>
+  <si>
+    <t>e. Base of Cambrian series 3</t>
+  </si>
+  <si>
+    <t>Smith2013prsb</t>
+  </si>
+  <si>
+    <t>Spence Shale</t>
+  </si>
+  <si>
+    <t>Sumrall1999jp</t>
+  </si>
+  <si>
+    <t>Wuliuan</t>
+  </si>
+  <si>
+    <t>Zamora2023pip</t>
+  </si>
+  <si>
+    <t>yang2018jgs</t>
+  </si>
+  <si>
+    <t>Chengjiang</t>
   </si>
 </sst>
 </file>
@@ -723,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +815,7 @@
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -757,10 +835,16 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -768,14 +852,13 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F2">
-        <f>VLOOKUP(E2, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -796,7 +879,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -817,7 +900,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -831,14 +914,13 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(E5, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -846,14 +928,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(E6, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -864,14 +945,13 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(E7, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -882,14 +962,13 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(E8, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -900,14 +979,13 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(E9, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -928,7 +1006,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -949,7 +1027,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -970,7 +1048,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -991,7 +1069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -999,14 +1077,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(E14, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -1014,14 +1091,16 @@
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(E15, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -1029,14 +1108,13 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(E16, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1044,14 +1122,16 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F17">
-        <f>VLOOKUP(E17, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1059,14 +1139,16 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F18">
-        <f>VLOOKUP(E18, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1074,14 +1156,16 @@
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(E19, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -1102,7 +1186,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1123,7 +1207,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1144,7 +1228,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1159,7 +1243,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1174,7 +1258,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1182,14 +1266,16 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(E25, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="I25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1200,14 +1286,16 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(E26, lookup!$A$1:$B$14, 2)</f>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -1218,14 +1306,17 @@
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(E27, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="I27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -1239,14 +1330,16 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F28">
-        <f>VLOOKUP(E28, lookup!$A$1:$B$14, 2)</f>
         <v>507</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -1262,11 +1355,11 @@
       <c r="F29">
         <v>503</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -1282,11 +1375,11 @@
       <c r="F30">
         <v>501</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -1294,14 +1387,16 @@
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(E31, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1309,14 +1404,16 @@
         <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(E32, lookup!$A$1:$B$14, 2)</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1327,14 +1424,22 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(E33, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33">
+        <v>500</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -1352,7 +1457,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -1363,14 +1468,16 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(E35, lookup!$A$1:$B$14, 2)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="I35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -1388,7 +1495,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1399,14 +1506,22 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(E37, lookup!$A$1:$B$14, 2)</f>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37">
+        <v>505</v>
+      </c>
+      <c r="I37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -1417,14 +1532,22 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(E38, lookup!$A$1:$B$14, 2)</f>
+        <v>508.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38">
         <v>507</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -1435,14 +1558,16 @@
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(E39, lookup!$A$1:$B$14, 2)</f>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1456,14 +1581,22 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(E40, lookup!$A$1:$B$14, 2)</f>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="G40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40">
+        <v>505</v>
+      </c>
+      <c r="I40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1474,14 +1607,16 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(E41, lookup!$A$1:$B$14, 2)</f>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="I41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1492,14 +1627,23 @@
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(E42, lookup!$A$1:$B$14, 2)</f>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42">
+        <v>502</v>
+      </c>
+      <c r="I42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -1517,7 +1661,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1543,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F610AA83-6D54-4B6E-86DB-B5691D9581B3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,6 +1807,22 @@
         <v>474</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A43">
     <sortCondition ref="A1:A43"/>

--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CC2D1-FB7A-4876-8BEE-511873BA2255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5694E-7951-4F07-9CC7-2B8643794C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16110" yWindow="-15" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="150">
   <si>
     <t>Herpetogaster collinsi</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Caesaraugustan: Genestosa Member (Oville Formation) and Murero Formation (part)</t>
   </si>
   <si>
-    <t>Jbel Wawrmast Fm, Tarhoucht Mbr 1</t>
-  </si>
-  <si>
     <t>Lower Oryctocephalus indicus zone</t>
   </si>
   <si>
@@ -484,6 +481,12 @@
   </si>
   <si>
     <t>Chengjiang</t>
+  </si>
+  <si>
+    <t>Rahman2010pz</t>
+  </si>
+  <si>
+    <t>Galgenberg Fm, early Agdzian</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +917,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5">
         <v>518</v>
@@ -928,7 +931,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6">
         <v>518</v>
@@ -1091,13 +1094,13 @@
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15">
         <v>518</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1122,13 +1125,13 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17">
         <v>508</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,13 +1142,13 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18">
         <v>508</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1156,13 +1159,13 @@
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19">
         <v>508</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1306,14 +1309,14 @@
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(E27, lookup!$A$1:$B$14, 2)</f>
         <v>474</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1330,13 +1333,13 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28">
         <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1387,13 +1390,13 @@
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31">
         <v>509</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1532,19 +1535,19 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38">
         <v>508.5</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H38">
         <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1581,10 +1584,10 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F40">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G40" t="s">
         <v>133</v>
@@ -1593,7 +1596,7 @@
         <v>505</v>
       </c>
       <c r="I40" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1817,7 +1820,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B16">
         <v>518</v>

--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D5694E-7951-4F07-9CC7-2B8643794C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7610BE-6CE1-42E9-9730-E5A98303E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16110" yWindow="-15" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
   <si>
     <t>Herpetogaster collinsi</t>
   </si>
@@ -423,9 +423,6 @@
     <t>loTime</t>
   </si>
   <si>
-    <t>Latham Shale</t>
-  </si>
-  <si>
     <t>Drumian</t>
   </si>
   <si>
@@ -487,6 +484,12 @@
   </si>
   <si>
     <t>Galgenberg Fm, early Agdzian</t>
+  </si>
+  <si>
+    <t>Latham Shale, Bonnia-Olenella zone</t>
+  </si>
+  <si>
+    <t>Durham1978jp; Smith2013nc</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2">
         <v>508</v>
@@ -917,7 +920,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>518</v>
@@ -931,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6">
         <v>518</v>
@@ -948,7 +951,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7">
         <v>508</v>
@@ -965,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8">
         <v>508</v>
@@ -982,7 +985,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9">
         <v>508</v>
@@ -1080,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14">
         <v>508</v>
@@ -1094,13 +1097,13 @@
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15">
         <v>518</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1111,7 +1114,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16">
         <v>508</v>
@@ -1125,13 +1128,13 @@
         <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>508</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,13 +1145,13 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F18">
         <v>508</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1159,13 +1162,13 @@
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19">
         <v>508</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1269,7 +1272,7 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25">
         <v>504</v>
@@ -1289,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26">
         <v>500</v>
@@ -1309,14 +1312,14 @@
         <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(E27, lookup!$A$1:$B$14, 2)</f>
         <v>474</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,13 +1336,13 @@
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28">
         <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1390,13 +1393,13 @@
         <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31">
         <v>509</v>
       </c>
       <c r="I31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,13 +1430,13 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33">
         <v>506</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33">
         <v>500</v>
@@ -1471,13 +1474,13 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35">
         <v>508</v>
       </c>
       <c r="I35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,13 +1512,13 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37">
         <v>511</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37">
         <v>505</v>
@@ -1535,19 +1538,19 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38">
         <v>508.5</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38">
         <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1584,19 +1587,19 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40">
         <v>512</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H40">
         <v>505</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1630,20 +1633,19 @@
         <v>40</v>
       </c>
       <c r="E42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42">
+        <v>512</v>
+      </c>
+      <c r="G42" t="s">
         <v>128</v>
-      </c>
-      <c r="F42">
-        <f>VLOOKUP(E42, lookup!$A$1:$B$14, 2)</f>
-        <v>408</v>
-      </c>
-      <c r="G42" t="s">
-        <v>129</v>
       </c>
       <c r="H42">
         <v>502</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1812,7 +1814,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>508</v>
@@ -1820,7 +1822,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>518</v>

--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7610BE-6CE1-42E9-9730-E5A98303E70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA19AA-CA9B-47D7-84A2-9B80242A47FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16110" yWindow="-15" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t>Herpetogaster collinsi</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Durham1978jp; Smith2013nc</t>
+  </si>
+  <si>
+    <t>Topper2019nc cite Purella antiqua zone, which Peng2020gts assign an age of 529-531.5 (earlier than Topper2019nc)</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +885,7 @@
       </c>
       <c r="F3">
         <f>VLOOKUP(E3, lookup!$A$1:$B$14, 2)</f>
-        <v>400</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -903,7 +906,7 @@
       </c>
       <c r="F4">
         <f>VLOOKUP(E4, lookup!$A$1:$B$14, 2)</f>
-        <v>400</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1009,7 +1012,7 @@
       </c>
       <c r="F10">
         <f>VLOOKUP(E10, lookup!$A$1:$B$14, 2)</f>
-        <v>400</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1030,7 +1033,7 @@
       </c>
       <c r="F11">
         <f>VLOOKUP(E11, lookup!$A$1:$B$14, 2)</f>
-        <v>400</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1051,7 +1054,7 @@
       </c>
       <c r="F12">
         <f>VLOOKUP(E12, lookup!$A$1:$B$14, 2)</f>
-        <v>400</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1072,7 +1075,7 @@
       </c>
       <c r="F13">
         <f>VLOOKUP(E13, lookup!$A$1:$B$14, 2)</f>
-        <v>400</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1245,8 +1248,10 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(E23, lookup!$A$1:$B$14, 2)</f>
-        <v>535</v>
+        <v>530</v>
+      </c>
+      <c r="I23" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,8 +1265,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <f>VLOOKUP(E24, lookup!$A$1:$B$14, 2)</f>
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1695,7 +1699,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1709,8 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>400</v>
+        <f>443.8-0.5</f>
+        <v>443.3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA19AA-CA9B-47D7-84A2-9B80242A47FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C04242-33A1-4F41-896B-7071DE7E919F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16110" yWindow="-15" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="1170" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taxa" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,8 +1319,7 @@
         <v>143</v>
       </c>
       <c r="F27">
-        <f>VLOOKUP(E27, lookup!$A$1:$B$14, 2)</f>
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="I27" t="s">
         <v>144</v>

--- a/Ages.xlsx
+++ b/Ages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\phylo-vetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C04242-33A1-4F41-896B-7071DE7E919F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFE1411-F057-4A96-8109-2DFE33840E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1170" windowWidth="16080" windowHeight="19245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18150" yWindow="1950" windowWidth="12150" windowHeight="20595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taxa" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t xml:space="preserve">Shankouclava_anningense_cs3                        </t>
   </si>
   <si>
-    <t xml:space="preserve">Phlogites_longus_cs3                               </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hemichordata_Gyaltsenglossus                       </t>
   </si>
   <si>
@@ -246,12 +243,6 @@
     <t xml:space="preserve">Mitrate_Jaekelocarpus_oklahomensis               </t>
   </si>
   <si>
-    <t xml:space="preserve">Yanjiahella_biscarpa_cs1_aulacophore               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yanjiahella_biscarpa_cs1_tentacles                 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ctenoimbricata_spinosa_cs5                         </t>
   </si>
   <si>
@@ -261,12 +252,6 @@
     <t xml:space="preserve">Cinctan_Bohemiacinctus_havliceki_cs5               </t>
   </si>
   <si>
-    <t xml:space="preserve">Cornute_Ponticulocarpus_cs5                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solute_Coleicarpus_sprinklei_cs6                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Solute_Castericystis_vali_cs6                      </t>
   </si>
   <si>
@@ -285,9 +270,6 @@
     <t xml:space="preserve">Eocrinoidea_Lyracystis_radiata_cs5                 </t>
   </si>
   <si>
-    <t xml:space="preserve">Eocrinoidea_Rhombifera_Pleurocystites_om           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Edrioasteroidea_Stromatocystites_cs4-5             </t>
   </si>
   <si>
@@ -297,18 +279,12 @@
     <t xml:space="preserve">Edrioasteroidea_Camptostroma_cs4                   </t>
   </si>
   <si>
-    <t xml:space="preserve">Cornute?_Ceratocystis_perneri_cs5-4                </t>
-  </si>
-  <si>
     <t xml:space="preserve">Eocrinoidea_Kinzercystis_cs4                       </t>
   </si>
   <si>
     <t xml:space="preserve">Eocrinoidea_Gogia_cs4                              </t>
   </si>
   <si>
-    <t xml:space="preserve">Eocrinoidea_Rhombifera_Macrocystella_os1           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Crinoidea_Aethocrinus_os1                          </t>
   </si>
   <si>
@@ -493,6 +469,30 @@
   </si>
   <si>
     <t>Topper2019nc cite Purella antiqua zone, which Peng2020gts assign an age of 529-531.5 (earlier than Topper2019nc)</t>
+  </si>
+  <si>
+    <t>Phlogites_longus</t>
+  </si>
+  <si>
+    <t>Cornute_Ponticulocarpus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solute_Coleicarpus_sprinklei            </t>
+  </si>
+  <si>
+    <t>Cornute_Ceratocystis_perneri</t>
+  </si>
+  <si>
+    <t>Rhombifera_Macrocystella</t>
+  </si>
+  <si>
+    <t>Rhombifera_Pleurocystites</t>
+  </si>
+  <si>
+    <t>Yanjiahella_biscarpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanjiahella_biscarpa_-_aulacophore_interpretation       </t>
   </si>
 </sst>
 </file>
@@ -813,12 +813,12 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
         <v>25</v>
@@ -844,13 +844,13 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>508</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
@@ -917,13 +917,13 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F5">
         <v>518</v>
@@ -931,13 +931,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>518</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -954,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F7">
         <v>508</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -971,7 +971,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F8">
         <v>508</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -988,7 +988,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F9">
         <v>508</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F14">
         <v>508</v>
@@ -1094,30 +1094,30 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>518</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F16">
         <v>508</v>
@@ -1125,67 +1125,67 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F17">
         <v>508</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F18">
         <v>508</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F19">
         <v>508</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1218,16 +1218,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>22</v>
@@ -1251,15 +1251,15 @@
         <v>530</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -1270,190 +1270,190 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>504</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F26">
         <v>500</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F27">
         <v>505</v>
       </c>
       <c r="I27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F28">
         <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
         <v>112</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
       </c>
       <c r="F29">
         <v>503</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F30">
         <v>501</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F31">
         <v>509</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>516</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F33">
         <v>506</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H33">
         <v>500</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
@@ -1468,27 +1468,27 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F35">
         <v>508</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -1506,108 +1506,108 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F37">
         <v>511</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H37">
         <v>505</v>
       </c>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F38">
         <v>508.5</v>
       </c>
       <c r="G38" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H38">
         <v>507</v>
       </c>
       <c r="I38" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F39">
         <v>513</v>
       </c>
       <c r="I39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F40">
         <v>512</v>
       </c>
       <c r="G40" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H40">
         <v>505</v>
       </c>
       <c r="I40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
@@ -1616,47 +1616,47 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F41">
         <v>513</v>
       </c>
       <c r="I41" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F42">
         <v>512</v>
       </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H42">
         <v>502</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B15">
         <v>508</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B16">
         <v>518</v>
